--- a/results/mp/logistic/corona/confidence/42/topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,39 +40,36 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>die</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>sc</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>die</t>
+    <t>panic</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -88,24 +85,33 @@
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
@@ -121,97 +127,127 @@
     <t>free</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>won</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>your</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
-    <t>,</t>
+    <t>it</t>
   </si>
   <si>
     <t>!</t>
@@ -223,7 +259,7 @@
     <t>for</t>
   </si>
   <si>
-    <t>corona</t>
+    <t>store</t>
   </si>
   <si>
     <t>are</t>
@@ -590,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,10 +634,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -659,13 +695,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.773972602739726</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C3">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -677,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -701,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -709,13 +745,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7666666666666667</v>
+        <v>0.7534246575342466</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -727,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K4">
         <v>0.9322033898305084</v>
@@ -759,13 +795,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6764705882352942</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -777,19 +813,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.925</v>
       </c>
       <c r="L5">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M5">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -801,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -809,13 +845,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6551724137931034</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -827,19 +863,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -851,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -859,13 +895,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.631578947368421</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -877,19 +913,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.8846153846153846</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -901,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -909,13 +945,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5833333333333334</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -927,19 +963,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8328981723237598</v>
       </c>
       <c r="L8">
-        <v>98</v>
+        <v>319</v>
       </c>
       <c r="M8">
-        <v>98</v>
+        <v>319</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -951,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -959,13 +995,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5686274509803921</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -977,31 +1013,31 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>93</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9">
+        <v>0.828125</v>
+      </c>
+      <c r="L9">
+        <v>106</v>
+      </c>
+      <c r="M9">
+        <v>106</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>22</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9">
-        <v>0.8620689655172413</v>
-      </c>
-      <c r="L9">
-        <v>50</v>
-      </c>
-      <c r="M9">
-        <v>50</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1009,13 +1045,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5135135135135135</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1027,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.8611111111111112</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1059,13 +1095,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4576271186440678</v>
+        <v>0.4205426356589148</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1077,19 +1113,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>32</v>
+        <v>299</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.856396866840731</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>328</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>328</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1101,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1109,13 +1145,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4497354497354497</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C12">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1127,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>0.8359375</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L12">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="M12">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1151,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1159,13 +1195,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.439922480620155</v>
+        <v>0.32</v>
       </c>
       <c r="C13">
-        <v>227</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>227</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1177,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>289</v>
+        <v>51</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.8205128205128205</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1201,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1209,13 +1245,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2933333333333333</v>
+        <v>0.2818791946308725</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1227,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>0.8113207547169812</v>
+        <v>0.7875</v>
       </c>
       <c r="L14">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="M14">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1251,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1259,13 +1295,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2416107382550336</v>
+        <v>0.2</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1277,19 +1313,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>113</v>
+        <v>288</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.79375</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L15">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1301,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1309,13 +1345,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2388888888888889</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C16">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1327,19 +1363,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>0.7878787878787878</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1351,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1359,37 +1395,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.151394422310757</v>
+        <v>0.0938337801608579</v>
       </c>
       <c r="C17">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E17">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>213</v>
+        <v>338</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>0.7872340425531915</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1401,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1409,37 +1445,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.07506702412868632</v>
+        <v>0.01947419668938656</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>345</v>
+        <v>3021</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>0.7816901408450704</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L18">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1451,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1459,37 +1495,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01398897838066978</v>
+        <v>0.01653944020356234</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E19">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="F19">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>2326</v>
+        <v>2319</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.7674418604651163</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1501,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1509,37 +1545,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01274787535410765</v>
+        <v>0.01640759930915371</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>0.48</v>
+        <v>0.14</v>
       </c>
       <c r="F20">
-        <v>0.52</v>
+        <v>0.86</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2091</v>
+        <v>1139</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>0.7560975609756098</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L20">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1551,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1559,37 +1595,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01196636481241915</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="C21">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D21">
+        <v>63</v>
+      </c>
+      <c r="E21">
+        <v>0.52</v>
+      </c>
+      <c r="F21">
+        <v>0.48</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2080</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E21">
-        <v>0.29</v>
-      </c>
-      <c r="F21">
-        <v>0.71</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>3055</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K21">
-        <v>0.7407407407407407</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1601,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1609,37 +1645,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.009615384615384616</v>
+        <v>0.009606986899563319</v>
       </c>
       <c r="C22">
         <v>22</v>
       </c>
       <c r="D22">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E22">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="F22">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>0.7301587301587301</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L22">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1651,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1659,13 +1695,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.009415457041977247</v>
+        <v>0.009017839639286415</v>
       </c>
       <c r="C23">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D23">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E23">
         <v>0.58</v>
@@ -1677,19 +1713,19 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>5050</v>
+        <v>5055</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>0.7083333333333334</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1701,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1709,37 +1745,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007520325203252033</v>
+        <v>0.008340283569641367</v>
       </c>
       <c r="C24">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="E24">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="F24">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>4883</v>
+        <v>2378</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K24">
-        <v>0.6705882352941176</v>
+        <v>0.675</v>
       </c>
       <c r="L24">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1751,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>112</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1759,37 +1795,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006761482863138261</v>
+        <v>0.006930289441500204</v>
       </c>
       <c r="C25">
+        <v>34</v>
+      </c>
+      <c r="D25">
+        <v>124</v>
+      </c>
+      <c r="E25">
+        <v>0.73</v>
+      </c>
+      <c r="F25">
+        <v>0.27</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>4872</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25">
+        <v>0.6744186046511628</v>
+      </c>
+      <c r="L25">
         <v>29</v>
       </c>
-      <c r="D25">
-        <v>68</v>
-      </c>
-      <c r="E25">
-        <v>0.57</v>
-      </c>
-      <c r="F25">
-        <v>0.43</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>4260</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K25">
-        <v>0.66</v>
-      </c>
-      <c r="L25">
-        <v>33</v>
-      </c>
       <c r="M25">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1801,21 +1837,45 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.006355258976803305</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>74</v>
+      </c>
+      <c r="E26">
+        <v>0.73</v>
+      </c>
+      <c r="F26">
+        <v>0.27</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>3127</v>
+      </c>
       <c r="J26" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K26">
-        <v>0.6382978723404256</v>
+        <v>0.6401673640167364</v>
       </c>
       <c r="L26">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="M26">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1827,47 +1887,71 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.006306937631394534</v>
+      </c>
+      <c r="C27">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <v>74</v>
+      </c>
+      <c r="E27">
+        <v>0.64</v>
+      </c>
+      <c r="F27">
+        <v>0.36</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>4254</v>
+      </c>
       <c r="J27" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K27">
-        <v>0.6156462585034014</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L27">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="M27">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="N27">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>113</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K28">
-        <v>0.606694560669456</v>
+        <v>0.6264705882352941</v>
       </c>
       <c r="L28">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="M28">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1879,21 +1963,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>94</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K29">
-        <v>0.6</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L29">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M29">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1905,21 +1989,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K30">
-        <v>0.550561797752809</v>
+        <v>0.6</v>
       </c>
       <c r="L30">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1931,21 +2015,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K31">
-        <v>0.5142857142857142</v>
+        <v>0.5966101694915255</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1957,21 +2041,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>34</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K32">
-        <v>0.3013698630136986</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1983,21 +2067,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K33">
-        <v>0.2948717948717949</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L33">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2009,423 +2093,761 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K34">
-        <v>0.04761904761904762</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L34">
         <v>26</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N34">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>520</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K35">
-        <v>0.0333889816360601</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L35">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N35">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>1158</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K36">
-        <v>0.0209531635168447</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L36">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M36">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="N36">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>2383</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K37">
-        <v>0.02030456852791878</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M37">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="N37">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>965</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K38">
-        <v>0.01804511278195489</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L38">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M38">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="N38">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>2612</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K39">
-        <v>0.01762114537444934</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L39">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M39">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N39">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>1561</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K40">
-        <v>0.01695447409733124</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L40">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="N40">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>3131</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K41">
-        <v>0.01644479248238058</v>
+        <v>0.3125</v>
       </c>
       <c r="L41">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M41">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N41">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>1256</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="K42">
-        <v>0.01532567049808429</v>
+        <v>0.06238532110091743</v>
       </c>
       <c r="L42">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="M42">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="N42">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O42">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>4883</v>
+        <v>511</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K43">
-        <v>0.01422594142259414</v>
+        <v>0.05528846153846154</v>
       </c>
       <c r="L43">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N43">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>2356</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="K44">
-        <v>0.01309360953683799</v>
+        <v>0.05060240963855422</v>
       </c>
       <c r="L44">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="M44">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="N44">
-        <v>0.58</v>
+        <v>0.88</v>
       </c>
       <c r="O44">
-        <v>0.42</v>
+        <v>0.12</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>5050</v>
+        <v>394</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="K45">
-        <v>0.01181474480151229</v>
+        <v>0.04845446950710108</v>
       </c>
       <c r="L45">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="M45">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="N45">
-        <v>0.48</v>
+        <v>0.95</v>
       </c>
       <c r="O45">
-        <v>0.52</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>2091</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K46">
-        <v>0.01024685607824872</v>
+        <v>0.03128911138923655</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M46">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N46">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="O46">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>2125</v>
+        <v>774</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K47">
+        <v>0.02738336713995943</v>
+      </c>
+      <c r="L47">
         <v>27</v>
       </c>
-      <c r="K47">
-        <v>0.009182334936598164</v>
-      </c>
-      <c r="L47">
-        <v>21</v>
-      </c>
       <c r="M47">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="N47">
-        <v>0.49</v>
+        <v>0.9</v>
       </c>
       <c r="O47">
-        <v>0.51</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>2266</v>
+        <v>959</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="K48">
-        <v>0.009071877180739707</v>
+        <v>0.02522590361445783</v>
       </c>
       <c r="L48">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="M48">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="N48">
-        <v>0.57</v>
+        <v>0.8</v>
       </c>
       <c r="O48">
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>4260</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K49">
+        <v>0.02462121212121212</v>
+      </c>
+      <c r="L49">
+        <v>39</v>
+      </c>
+      <c r="M49">
+        <v>49</v>
+      </c>
+      <c r="N49">
+        <v>0.8</v>
+      </c>
+      <c r="O49">
+        <v>0.2</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K50">
+        <v>0.02351623740201568</v>
+      </c>
+      <c r="L50">
+        <v>21</v>
+      </c>
+      <c r="M50">
+        <v>22</v>
+      </c>
+      <c r="N50">
+        <v>0.95</v>
+      </c>
+      <c r="O50">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K51">
+        <v>0.02029664324746292</v>
+      </c>
+      <c r="L51">
+        <v>26</v>
+      </c>
+      <c r="M51">
+        <v>34</v>
+      </c>
+      <c r="N51">
+        <v>0.76</v>
+      </c>
+      <c r="O51">
+        <v>0.24</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52">
+        <v>0.01938144329896907</v>
+      </c>
+      <c r="L52">
+        <v>47</v>
+      </c>
+      <c r="M52">
+        <v>67</v>
+      </c>
+      <c r="N52">
+        <v>0.7</v>
+      </c>
+      <c r="O52">
+        <v>0.3</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K53">
+        <v>0.01884422110552764</v>
+      </c>
+      <c r="L53">
+        <v>45</v>
+      </c>
+      <c r="M53">
+        <v>51</v>
+      </c>
+      <c r="N53">
+        <v>0.88</v>
+      </c>
+      <c r="O53">
+        <v>0.12</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K54">
+        <v>0.01813784764207981</v>
+      </c>
+      <c r="L54">
+        <v>90</v>
+      </c>
+      <c r="M54">
+        <v>124</v>
+      </c>
+      <c r="N54">
+        <v>0.73</v>
+      </c>
+      <c r="O54">
+        <v>0.27</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>4872</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55">
+        <v>0.01697579377554228</v>
+      </c>
+      <c r="L55">
+        <v>54</v>
+      </c>
+      <c r="M55">
+        <v>74</v>
+      </c>
+      <c r="N55">
+        <v>0.73</v>
+      </c>
+      <c r="O55">
+        <v>0.27</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K56">
+        <v>0.01561760530052059</v>
+      </c>
+      <c r="L56">
+        <v>33</v>
+      </c>
+      <c r="M56">
+        <v>63</v>
+      </c>
+      <c r="N56">
+        <v>0.52</v>
+      </c>
+      <c r="O56">
+        <v>0.48</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K57">
+        <v>0.01250244188318031</v>
+      </c>
+      <c r="L57">
+        <v>64</v>
+      </c>
+      <c r="M57">
+        <v>110</v>
+      </c>
+      <c r="N57">
+        <v>0.58</v>
+      </c>
+      <c r="O57">
+        <v>0.42</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>5055</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K58">
+        <v>0.01168224299065421</v>
+      </c>
+      <c r="L58">
+        <v>25</v>
+      </c>
+      <c r="M58">
+        <v>43</v>
+      </c>
+      <c r="N58">
+        <v>0.58</v>
+      </c>
+      <c r="O58">
+        <v>0.42</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K59">
+        <v>0.01092769123459661</v>
+      </c>
+      <c r="L59">
+        <v>47</v>
+      </c>
+      <c r="M59">
+        <v>74</v>
+      </c>
+      <c r="N59">
+        <v>0.64</v>
+      </c>
+      <c r="O59">
+        <v>0.36</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K49">
-        <v>0.008525149190110827</v>
-      </c>
-      <c r="L49">
-        <v>20</v>
-      </c>
-      <c r="M49">
-        <v>53</v>
-      </c>
-      <c r="N49">
-        <v>0.38</v>
-      </c>
-      <c r="O49">
-        <v>0.62</v>
-      </c>
-      <c r="P49" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49">
-        <v>2326</v>
+      <c r="K60">
+        <v>0.008974358974358974</v>
+      </c>
+      <c r="L60">
+        <v>21</v>
+      </c>
+      <c r="M60">
+        <v>60</v>
+      </c>
+      <c r="N60">
+        <v>0.35</v>
+      </c>
+      <c r="O60">
+        <v>0.65</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61">
+        <v>0.00853298326222514</v>
+      </c>
+      <c r="L61">
+        <v>26</v>
+      </c>
+      <c r="M61">
+        <v>86</v>
+      </c>
+      <c r="N61">
+        <v>0.3</v>
+      </c>
+      <c r="O61">
+        <v>0.7</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K62">
+        <v>0.008307826847398338</v>
+      </c>
+      <c r="L62">
+        <v>19</v>
+      </c>
+      <c r="M62">
+        <v>41</v>
+      </c>
+      <c r="N62">
+        <v>0.46</v>
+      </c>
+      <c r="O62">
+        <v>0.54</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>2268</v>
       </c>
     </row>
   </sheetData>
